--- a/pred_ohlcv/54_21/2019-11-02 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 MTL ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>24624.5359</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>27417.1325</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>27417.1325</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>27360.5263</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>24269.6267</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>24514.6267</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>24306.4643</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>24306.4643</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>24505.5038</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>24505.5038</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>28152.488</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>28152.488</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>28152.488</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>28152.488</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>21920.9559</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>54486.4019</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>50998.74219999999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>50998.74219999999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>44466.0422</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>44466.0422</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>44466.0422</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>44466.0422</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>44166.0422</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>45938.16439999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>39940.03909999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>39940.03909999999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>46340.7092</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>45376.0092</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>45676.0092</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>50559.1876</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>50527.3459</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>42792.0874</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>41917.7907</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>31894.3469</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>32766.9951</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>40548.84190000001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>40548.84190000001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>40612.02240000001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>40612.02240000001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>47281.93520000001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>53932.93520000001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>46562.63898783001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>62891.02699818003</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>138606.1871824</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>212363.85752814</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>235918.28082814</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>235918.28082814</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>235918.28082814</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>250587.50154184</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>240609.69634184</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>232608.38074184</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>247994.15134184</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>250266.22394184</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>266289.62824184</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>296702.15054184</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>264611.88604184</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>308361.36354184</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>382622.53274184</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>445888.47391515</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>521572.02474184</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>452704.15416701</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>330587.78059338</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>296769.10929338</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>296769.10929338</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>273912.79279338</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>293883.38279338</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>305079.00099338</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>347768.0138933801</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>341067.3640004101</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>325392.7601991901</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>308994.3115612101</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>309931.9043612101</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>306011.0413612101</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>319900.95666121</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>319481.39986121</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>325895.97096121</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>400324.64486121</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>440890.63026121</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>461690.19484197</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>437889.6790109</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>446000.8081109</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>735876.9092768601</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>730741.98950368</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>699781.5500455</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>721174.01674867</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>721174.01674867</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>852156.1102411901</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>782385.6513411901</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>733879.90494119</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>758319.1402411901</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>706253.8114411901</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>706253.8114411901</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>732942.5654001001</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>718868.6407169001</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>718868.6407169001</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>697026.5565450601</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>713289.7887450601</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>705549.8315022601</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>719545.44280226</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>726344.4521503201</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>730573.81842528</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>714246.6359206301</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>714246.6359206301</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>784824.46502063</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>764729.36892063</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 MTL ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>28152.488</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>28152.488</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>21920.9559</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>54486.4019</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>50998.74219999999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>50998.74219999999</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>44466.0422</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>44466.0422</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>44466.0422</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>44466.0422</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>44166.0422</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>45676.0092</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>45048.6562</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>53932.93520000001</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>15662.00206684001</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-40936.10126387999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>46562.63898783001</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>62891.02699818003</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>138606.1871824</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>212363.85752814</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>235918.28082814</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>235918.28082814</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>235918.28082814</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>250587.50154184</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>240609.69634184</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>232608.38074184</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>247994.15134184</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>250266.22394184</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>266289.62824184</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>296702.15054184</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>264611.88604184</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>308361.36354184</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>382622.53274184</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>445888.47391515</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>521572.02474184</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>452704.15416701</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>330587.78059338</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>296769.10929338</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>296769.10929338</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>273912.79279338</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>293883.38279338</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>305079.00099338</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>347768.0138933801</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>341067.3640004101</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>325392.7601991901</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>308994.3115612101</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>309931.9043612101</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>306011.0413612101</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>319900.95666121</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>319481.39986121</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>325895.97096121</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>400324.64486121</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>440890.63026121</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>461690.19484197</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>437889.6790109</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>446000.8081109</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>740058.08719938</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>740058.08719938</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>720878.76519938</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>764312.02419938</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>804851.12758469</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>781032.97386963</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>792046.58585636</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>792046.58585636</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>735876.9092768601</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>730741.98950368</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>699781.5500455</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>708776.80117221</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>721174.01674867</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>721174.01674867</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>769423.67449894</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>852156.1102411901</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>782385.6513411901</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>733879.90494119</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>758319.1402411901</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>706253.8114411901</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>706253.8114411901</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>732942.5654001001</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>718868.6407169001</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>718868.6407169001</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>697026.5565450601</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>713289.7887450601</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>705549.8315022601</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>719545.44280226</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>726344.4521503201</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>730573.81842528</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>714246.6359206301</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>714246.6359206301</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>728901.85662063</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>784824.46502063</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>770978.24232063</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>764992.69172063</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>775542.81222063</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>764729.36892063</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>764729.36892063</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>771685.7485206299</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>770813.4104206299</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>717664.4522206299</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>611323.1434206299</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>584941.7844206298</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
